--- a/task 1/output.xlsx
+++ b/task 1/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="291">
   <si>
     <t>Learn HTML</t>
   </si>
@@ -334,6 +334,12 @@
     <t>/cybersecurity/index.php</t>
   </si>
   <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>/accessibility/index.php</t>
+  </si>
+  <si>
     <t>HTML Tag Reference</t>
   </si>
   <si>
@@ -781,6 +787,12 @@
     <t>/cybersecurity/cybersecurity_quiz.php</t>
   </si>
   <si>
+    <t>Accessibility Quiz</t>
+  </si>
+  <si>
+    <t>/accessibility/accessibility_quiz.php</t>
+  </si>
+  <si>
     <t>HTML Course</t>
   </si>
   <si>
@@ -869,6 +881,12 @@
   </si>
   <si>
     <t>https://courses.w3schools.com/courses/introduction-to-cyber-security</t>
+  </si>
+  <si>
+    <t>Accessibility Course</t>
+  </si>
+  <si>
+    <t>https://courses.w3schools.com/courses/accessibility-fundamentals</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,122 +1663,122 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1784,15 +1802,15 @@
         <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1896,15 +1914,15 @@
         <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" t="s">
         <v>140</v>
-      </c>
-      <c r="B86" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2040,15 +2058,15 @@
         <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" t="s">
         <v>175</v>
-      </c>
-      <c r="B104" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2367,7 +2385,7 @@
       <c r="A144" t="s">
         <v>255</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2375,7 +2393,7 @@
       <c r="A145" t="s">
         <v>257</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2483,23 +2501,48 @@
         <v>284</v>
       </c>
     </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>285</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>287</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>289</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B144" r:id="rId1"/>
-    <hyperlink ref="B145" r:id="rId2"/>
-    <hyperlink ref="B146" r:id="rId3"/>
-    <hyperlink ref="B147" r:id="rId4"/>
-    <hyperlink ref="B148" r:id="rId5"/>
-    <hyperlink ref="B149" r:id="rId6"/>
-    <hyperlink ref="B150" r:id="rId7"/>
-    <hyperlink ref="B151" r:id="rId8"/>
-    <hyperlink ref="B152" r:id="rId9"/>
-    <hyperlink ref="B153" r:id="rId10"/>
-    <hyperlink ref="B154" r:id="rId11"/>
-    <hyperlink ref="B155" r:id="rId12"/>
-    <hyperlink ref="B156" r:id="rId13"/>
-    <hyperlink ref="B157" r:id="rId14"/>
-    <hyperlink ref="B158" r:id="rId15"/>
+    <hyperlink ref="B146" r:id="rId1"/>
+    <hyperlink ref="B147" r:id="rId2"/>
+    <hyperlink ref="B148" r:id="rId3"/>
+    <hyperlink ref="B149" r:id="rId4"/>
+    <hyperlink ref="B150" r:id="rId5"/>
+    <hyperlink ref="B151" r:id="rId6"/>
+    <hyperlink ref="B152" r:id="rId7"/>
+    <hyperlink ref="B153" r:id="rId8"/>
+    <hyperlink ref="B154" r:id="rId9"/>
+    <hyperlink ref="B155" r:id="rId10"/>
+    <hyperlink ref="B156" r:id="rId11"/>
+    <hyperlink ref="B157" r:id="rId12"/>
+    <hyperlink ref="B158" r:id="rId13"/>
+    <hyperlink ref="B159" r:id="rId14"/>
+    <hyperlink ref="B160" r:id="rId15"/>
+    <hyperlink ref="B161" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
